--- a/DIO_LAB_IR_v2.xlsx
+++ b/DIO_LAB_IR_v2.xlsx
@@ -453,19 +453,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -516,17 +503,30 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
+      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="0" hidden="0"/>
     </dxf>
@@ -577,10 +577,10 @@
         <xdr:cNvPr id="2" name="Imagem 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4FFFC06-B710-4EDF-8845-4DD6FF6DAF66}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F4FFFC06-B710-4EDF-8845-4DD6FF6DAF66}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{39DFC052-28A6-A8E9-64C7-DFFB4C44F2AC}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{39DFC052-28A6-A8E9-64C7-DFFB4C44F2AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -624,10 +624,10 @@
         <xdr:cNvPr id="3" name="Retângulo 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68CA5B84-8FF2-434E-8635-21BE2F7EE250}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{68CA5B84-8FF2-434E-8635-21BE2F7EE250}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F4FFFC06-B710-4EDF-8845-4DD6FF6DAF66}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{F4FFFC06-B710-4EDF-8845-4DD6FF6DAF66}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -702,10 +702,10 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A6D763B-30EA-4813-AE41-EE8213CD013F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A6D763B-30EA-4813-AE41-EE8213CD013F}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{68CA5B84-8FF2-434E-8635-21BE2F7EE250}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{68CA5B84-8FF2-434E-8635-21BE2F7EE250}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -777,10 +777,10 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1681CCEA-5237-46C6-8BF8-AC6D1C3DDDE7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1681CCEA-5237-46C6-8BF8-AC6D1C3DDDE7}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0A6D763B-30EA-4813-AE41-EE8213CD013F}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{0A6D763B-30EA-4813-AE41-EE8213CD013F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -947,10 +947,10 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0620E1BB-72EA-42D0-B0EE-9F3BC327D1EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0620E1BB-72EA-42D0-B0EE-9F3BC327D1EE}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{1681CCEA-5237-46C6-8BF8-AC6D1C3DDDE7}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{1681CCEA-5237-46C6-8BF8-AC6D1C3DDDE7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1116,10 +1116,10 @@
         <xdr:cNvPr id="7" name="Retângulo 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89F58247-26EF-49A1-950F-BCC31D8BF79A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{89F58247-26EF-49A1-950F-BCC31D8BF79A}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0620E1BB-72EA-42D0-B0EE-9F3BC327D1EE}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{0620E1BB-72EA-42D0-B0EE-9F3BC327D1EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2094,10 +2094,10 @@
         <xdr:cNvPr id="2" name="Imagem 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54B03055-99A4-45A2-A997-12E16BE74FCB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{54B03055-99A4-45A2-A997-12E16BE74FCB}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{39DFC052-28A6-A8E9-64C7-DFFB4C44F2AC}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{39DFC052-28A6-A8E9-64C7-DFFB4C44F2AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2141,10 +2141,10 @@
         <xdr:cNvPr id="3" name="Retângulo 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{054357E7-D308-4245-9C96-6D3D9C0206F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{054357E7-D308-4245-9C96-6D3D9C0206F5}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{54B03055-99A4-45A2-A997-12E16BE74FCB}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{54B03055-99A4-45A2-A997-12E16BE74FCB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2226,10 +2226,10 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FD81ECE-F650-4371-AC43-CD8296104593}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5FD81ECE-F650-4371-AC43-CD8296104593}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{054357E7-D308-4245-9C96-6D3D9C0206F5}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{054357E7-D308-4245-9C96-6D3D9C0206F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2302,10 +2302,10 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F594F08C-A3F0-43B4-9042-60DCE993E575}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F594F08C-A3F0-43B4-9042-60DCE993E575}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5FD81ECE-F650-4371-AC43-CD8296104593}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{5FD81ECE-F650-4371-AC43-CD8296104593}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2471,10 +2471,10 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8D03129-B2A0-41A3-A9B7-CFF7A7E293DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E8D03129-B2A0-41A3-A9B7-CFF7A7E293DF}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F594F08C-A3F0-43B4-9042-60DCE993E575}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{F594F08C-A3F0-43B4-9042-60DCE993E575}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2640,10 +2640,10 @@
         <xdr:cNvPr id="7" name="Retângulo 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57EE19C4-D356-4A00-BA8F-490FA98B5C11}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{57EE19C4-D356-4A00-BA8F-490FA98B5C11}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E8D03129-B2A0-41A3-A9B7-CFF7A7E293DF}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{E8D03129-B2A0-41A3-A9B7-CFF7A7E293DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3119,10 +3119,10 @@
         <xdr:cNvPr id="4" name="Imagem 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBB0444E-608E-2882-3393-EA896DA54CA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FBB0444E-608E-2882-3393-EA896DA54CA1}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{39DFC052-28A6-A8E9-64C7-DFFB4C44F2AC}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{39DFC052-28A6-A8E9-64C7-DFFB4C44F2AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3166,10 +3166,10 @@
         <xdr:cNvPr id="5" name="Retângulo 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9EEE217-1E0E-B5B1-7B59-867F55FC0412}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D9EEE217-1E0E-B5B1-7B59-867F55FC0412}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{FBB0444E-608E-2882-3393-EA896DA54CA1}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{FBB0444E-608E-2882-3393-EA896DA54CA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3244,10 +3244,10 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F377A64-7D3C-E6A8-0374-E8C2098A195A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5F377A64-7D3C-E6A8-0374-E8C2098A195A}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D9EEE217-1E0E-B5B1-7B59-867F55FC0412}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{D9EEE217-1E0E-B5B1-7B59-867F55FC0412}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3320,10 +3320,10 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3B3064F-9705-464B-A459-0ABA91A318C7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F3B3064F-9705-464B-A459-0ABA91A318C7}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5F377A64-7D3C-E6A8-0374-E8C2098A195A}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{5F377A64-7D3C-E6A8-0374-E8C2098A195A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3490,10 +3490,10 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0439D20E-942E-46F8-A641-EC5BA1461B39}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0439D20E-942E-46F8-A641-EC5BA1461B39}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F3B3064F-9705-464B-A459-0ABA91A318C7}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{F3B3064F-9705-464B-A459-0ABA91A318C7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3658,10 +3658,10 @@
         <xdr:cNvPr id="9" name="Retângulo 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C11E0BBA-DA3B-4174-A5E9-6783CC3002B9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C11E0BBA-DA3B-4174-A5E9-6783CC3002B9}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0439D20E-942E-46F8-A641-EC5BA1461B39}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{0439D20E-942E-46F8-A641-EC5BA1461B39}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4052,12 +4052,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="C10:E28" totalsRowShown="0" headerRowDxfId="4" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="C10:E28" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="C10:E28"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATA" dataDxfId="3"/>
-    <tableColumn id="2" name="CATEGORIA" dataDxfId="2"/>
-    <tableColumn id="3" name="VALOR" dataDxfId="1"/>
+    <tableColumn id="1" name="DATA" dataDxfId="2"/>
+    <tableColumn id="2" name="CATEGORIA" dataDxfId="1"/>
+    <tableColumn id="3" name="VALOR" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4372,7 +4372,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4383,7 +4383,7 @@
   <dimension ref="A3:D22"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4409,7 +4409,7 @@
       <c r="C7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="15" t="s">
         <v>85</v>
       </c>
     </row>
@@ -4417,7 +4417,7 @@
       <c r="C8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="16">
         <v>12312312312</v>
       </c>
     </row>
@@ -4425,7 +4425,7 @@
       <c r="C9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="17">
         <v>279</v>
       </c>
     </row>
@@ -4433,7 +4433,7 @@
       <c r="C10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="15">
         <v>123123123</v>
       </c>
     </row>
@@ -4441,13 +4441,13 @@
       <c r="C11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="20"/>
+      <c r="D11" s="15"/>
     </row>
     <row r="12" spans="3:4">
       <c r="C12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="15" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4455,43 +4455,43 @@
       <c r="C13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="20"/>
+      <c r="D13" s="15"/>
     </row>
     <row r="14" spans="3:4">
       <c r="C14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="23">
-        <v>4126060</v>
+      <c r="D14" s="18">
+        <v>4000000</v>
       </c>
     </row>
     <row r="15" spans="3:4">
       <c r="C15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="24">
-        <v>1155397400</v>
+      <c r="D15" s="19">
+        <v>1234567890</v>
       </c>
     </row>
     <row r="16" spans="3:4">
       <c r="C16" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="25">
-        <v>11972032640</v>
+      <c r="D16" s="20">
+        <v>12345678901</v>
       </c>
     </row>
     <row r="17" spans="3:4">
       <c r="C17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="20"/>
+      <c r="D17" s="15"/>
     </row>
     <row r="18" spans="3:4">
       <c r="C18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4499,7 +4499,7 @@
       <c r="C19" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="21" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4507,7 +4507,7 @@
       <c r="C20" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="21" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4551,10 +4551,10 @@
       </c>
     </row>
     <row r="5" spans="3:4" ht="15">
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="15"/>
+      <c r="D5" s="28"/>
     </row>
     <row r="7" spans="3:4" ht="16.5">
       <c r="C7" s="12" t="s">
@@ -4562,11 +4562,11 @@
       </c>
     </row>
     <row r="8" spans="3:4" ht="15">
-      <c r="C8" s="16">
+      <c r="C8" s="29">
         <f>SUM(D12,D17,D22)</f>
         <v>30000000</v>
       </c>
-      <c r="D8" s="17"/>
+      <c r="D8" s="30"/>
     </row>
     <row r="10" spans="3:4">
       <c r="C10" s="10" t="s">
@@ -4577,7 +4577,7 @@
       <c r="C11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="15" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4585,7 +4585,7 @@
       <c r="C12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="22">
         <v>10000000</v>
       </c>
     </row>
@@ -4593,22 +4593,22 @@
       <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="20"/>
+      <c r="D13" s="15"/>
     </row>
     <row r="14" spans="3:4">
-      <c r="D14" s="28"/>
+      <c r="D14" s="23"/>
     </row>
     <row r="15" spans="3:4">
       <c r="C15" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="28"/>
+      <c r="D15" s="23"/>
     </row>
     <row r="16" spans="3:4">
       <c r="C16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="15" t="s">
         <v>24</v>
       </c>
     </row>
@@ -4616,7 +4616,7 @@
       <c r="C17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="27">
+      <c r="D17" s="22">
         <v>10000000</v>
       </c>
     </row>
@@ -4624,22 +4624,22 @@
       <c r="C18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="20"/>
+      <c r="D18" s="15"/>
     </row>
     <row r="19" spans="3:4">
-      <c r="D19" s="28"/>
+      <c r="D19" s="23"/>
     </row>
     <row r="20" spans="3:4">
       <c r="C20" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="28"/>
+      <c r="D20" s="23"/>
     </row>
     <row r="21" spans="3:4">
       <c r="C21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="15" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4647,7 +4647,7 @@
       <c r="C22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="27">
+      <c r="D22" s="22">
         <v>10000000</v>
       </c>
     </row>
@@ -4655,7 +4655,7 @@
       <c r="C23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="20"/>
+      <c r="D23" s="15"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
@@ -4721,11 +4721,11 @@
       <c r="E5" s="14"/>
     </row>
     <row r="9" spans="2:5" ht="16.5">
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
     </row>
     <row r="10" spans="2:5">
       <c r="C10" s="11" t="s">
@@ -4739,100 +4739,100 @@
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="C11" s="29">
+      <c r="C11" s="24">
         <v>45813</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="26">
         <v>3000</v>
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="C12" s="32"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="31"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="26"/>
     </row>
     <row r="13" spans="2:5">
-      <c r="C13" s="32"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="31"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
     </row>
     <row r="14" spans="2:5">
-      <c r="C14" s="32"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="31"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="C15" s="32"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="31"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="26"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="C16" s="32"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="31"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="26"/>
     </row>
     <row r="17" spans="3:5">
-      <c r="C17" s="32"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="31"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="26"/>
     </row>
     <row r="18" spans="3:5">
-      <c r="C18" s="32"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="31"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="26"/>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="32"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="31"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="26"/>
     </row>
     <row r="20" spans="3:5">
-      <c r="C20" s="32"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="31"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="26"/>
     </row>
     <row r="21" spans="3:5">
-      <c r="C21" s="32"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="31"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="26"/>
     </row>
     <row r="22" spans="3:5">
-      <c r="C22" s="32"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="31"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="26"/>
     </row>
     <row r="23" spans="3:5">
-      <c r="C23" s="32"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="31"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="26"/>
     </row>
     <row r="24" spans="3:5">
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="31"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="26"/>
     </row>
     <row r="25" spans="3:5">
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="31"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="26"/>
     </row>
     <row r="26" spans="3:5">
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="31"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="26"/>
     </row>
     <row r="27" spans="3:5">
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="31"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="26"/>
     </row>
     <row r="28" spans="3:5">
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="31"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="26"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
